--- a/skrum_docs/04_SpecificDesign/07_Navigation_目標新規登録画面仕様書_20170702.xlsx
+++ b/skrum_docs/04_SpecificDesign/07_Navigation_目標新規登録画面仕様書_20170702.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/OneDrive/Skrum/07_プロダクト開発/プロダクト資料/03_詳細設計/画面仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Dev/skrum/skrum_docs/04_SpecificDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1455,7 +1455,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$1:$F$15" spid="_x0000_s1052"/>
+                  <a14:cameraTool cellRange="subsheet!$A$1:$F$15" spid="_x0000_s1056"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1493,6 +1493,256 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形吹き出し 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7061200" y="114300"/>
+          <a:ext cx="2578100" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76547"/>
+            <a:gd name="adj2" fmla="val 220670"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Remove "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>本人のみ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>".</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="2794000"/>
+          <a:ext cx="1155700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形吹き出し 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="812800"/>
+          <a:ext cx="2882900" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 78005"/>
+            <a:gd name="adj2" fmla="val 3195"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>◯</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>owner = user or group</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>・全体</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>・グループ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>・管理者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>・グループ管理者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>◯</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>owner = company</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>・全体</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>・管理者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2729,7 +2979,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$18:$F$32" spid="_x0000_s4122"/>
+                  <a14:cameraTool cellRange="subsheet!$A$18:$F$32" spid="_x0000_s4126"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
